--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -718,12 +718,59 @@
     <t>点评CAT通用埋点部分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>V3.1.4</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>sysconfig-pro.properties</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter.sysconfig.cat.itc.filterUrl=/**
+filter.sysconfig.cat.web.filterUrl=/*
+mail.smtp.auth=true
+mail.smtp.timeout=25000
+filter.mail.smtp.host=需要改成实际蘑菇租房邮件配置filter.mail.smtp.from=需要改成实际蘑菇租房邮件配置
+filter.mail.smtp.username=需要改成实际蘑菇租房邮件配置
+filter.mail.smtp.password=需要改成实际蘑菇租房邮件配置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件监控发邮件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/cat/client.xml</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经上了BS的监控，后面其他项目部署后，代码已经配置好，需要在所有部署应用的服务器配置 /data/cat/client.xml 目录，在应用重启之前配置好</t>
+  </si>
+  <si>
+    <t>cat监控</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -847,6 +894,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1012,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,18 +1194,6 @@
     <xf numFmtId="14" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,6 +1214,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1529,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2809,7 +2864,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2819,47 +2874,47 @@
       <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="44">
         <v>42524</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="44">
         <v>42524</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="49" t="s">
+      <c r="I29" s="43"/>
+      <c r="J29" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="M29" s="49"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49" t="s">
+      <c r="M29" s="45"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50" t="s">
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="S29" s="51" t="s">
+      <c r="S29" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="T29" s="52"/>
-    </row>
-    <row r="30" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="48"/>
+    </row>
+    <row r="30" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -2869,45 +2924,45 @@
       <c r="C30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="44">
         <v>42525</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="44">
         <v>42525</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="49" t="s">
+      <c r="I30" s="43"/>
+      <c r="J30" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="47" t="s">
+      <c r="L30" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="M30" s="49"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49" t="s">
+      <c r="M30" s="45"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50" t="s">
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="S30" s="51"/>
-      <c r="T30" s="52"/>
-    </row>
-    <row r="31" spans="1:20" s="53" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="S30" s="47"/>
+      <c r="T30" s="48"/>
+    </row>
+    <row r="31" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -2917,43 +2972,43 @@
       <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="44">
         <v>42525</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="44">
         <v>42525</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="49" t="s">
+      <c r="I31" s="43"/>
+      <c r="J31" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="47" t="s">
+      <c r="L31" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="M31" s="49"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49" t="s">
+      <c r="M31" s="45"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50" t="s">
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="S31" s="51"/>
-      <c r="T31" s="52"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48"/>
     </row>
     <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
@@ -6703,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7544,36 +7599,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -7655,35 +7710,79 @@
       </c>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+    <row r="5" spans="1:13" s="33" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="L6" s="34"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
@@ -7841,13 +7940,13 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB4:JB16 SX4:SX16 ACT4:ACT16 AMP4:AMP16 AWL4:AWL16 BGH4:BGH16 BQD4:BQD16 BZZ4:BZZ16 CJV4:CJV16 CTR4:CTR16 DDN4:DDN16 DNJ4:DNJ16 DXF4:DXF16 EHB4:EHB16 EQX4:EQX16 FAT4:FAT16 FKP4:FKP16 FUL4:FUL16 GEH4:GEH16 GOD4:GOD16 GXZ4:GXZ16 HHV4:HHV16 HRR4:HRR16 IBN4:IBN16 ILJ4:ILJ16 IVF4:IVF16 JFB4:JFB16 JOX4:JOX16 JYT4:JYT16 KIP4:KIP16 KSL4:KSL16 LCH4:LCH16 LMD4:LMD16 LVZ4:LVZ16 MFV4:MFV16 MPR4:MPR16 MZN4:MZN16 NJJ4:NJJ16 NTF4:NTF16 ODB4:ODB16 OMX4:OMX16 OWT4:OWT16 PGP4:PGP16 PQL4:PQL16 QAH4:QAH16 QKD4:QKD16 QTZ4:QTZ16 RDV4:RDV16 RNR4:RNR16 RXN4:RXN16 SHJ4:SHJ16 SRF4:SRF16 TBB4:TBB16 TKX4:TKX16 TUT4:TUT16 UEP4:UEP16 UOL4:UOL16 UYH4:UYH16 VID4:VID16 VRZ4:VRZ16 WBV4:WBV16 WLR4:WLR16 WVN4:WVN16 WVN983044:WVN983056 F65540:F65552 JB65540:JB65552 SX65540:SX65552 ACT65540:ACT65552 AMP65540:AMP65552 AWL65540:AWL65552 BGH65540:BGH65552 BQD65540:BQD65552 BZZ65540:BZZ65552 CJV65540:CJV65552 CTR65540:CTR65552 DDN65540:DDN65552 DNJ65540:DNJ65552 DXF65540:DXF65552 EHB65540:EHB65552 EQX65540:EQX65552 FAT65540:FAT65552 FKP65540:FKP65552 FUL65540:FUL65552 GEH65540:GEH65552 GOD65540:GOD65552 GXZ65540:GXZ65552 HHV65540:HHV65552 HRR65540:HRR65552 IBN65540:IBN65552 ILJ65540:ILJ65552 IVF65540:IVF65552 JFB65540:JFB65552 JOX65540:JOX65552 JYT65540:JYT65552 KIP65540:KIP65552 KSL65540:KSL65552 LCH65540:LCH65552 LMD65540:LMD65552 LVZ65540:LVZ65552 MFV65540:MFV65552 MPR65540:MPR65552 MZN65540:MZN65552 NJJ65540:NJJ65552 NTF65540:NTF65552 ODB65540:ODB65552 OMX65540:OMX65552 OWT65540:OWT65552 PGP65540:PGP65552 PQL65540:PQL65552 QAH65540:QAH65552 QKD65540:QKD65552 QTZ65540:QTZ65552 RDV65540:RDV65552 RNR65540:RNR65552 RXN65540:RXN65552 SHJ65540:SHJ65552 SRF65540:SRF65552 TBB65540:TBB65552 TKX65540:TKX65552 TUT65540:TUT65552 UEP65540:UEP65552 UOL65540:UOL65552 UYH65540:UYH65552 VID65540:VID65552 VRZ65540:VRZ65552 WBV65540:WBV65552 WLR65540:WLR65552 WVN65540:WVN65552 F131076:F131088 JB131076:JB131088 SX131076:SX131088 ACT131076:ACT131088 AMP131076:AMP131088 AWL131076:AWL131088 BGH131076:BGH131088 BQD131076:BQD131088 BZZ131076:BZZ131088 CJV131076:CJV131088 CTR131076:CTR131088 DDN131076:DDN131088 DNJ131076:DNJ131088 DXF131076:DXF131088 EHB131076:EHB131088 EQX131076:EQX131088 FAT131076:FAT131088 FKP131076:FKP131088 FUL131076:FUL131088 GEH131076:GEH131088 GOD131076:GOD131088 GXZ131076:GXZ131088 HHV131076:HHV131088 HRR131076:HRR131088 IBN131076:IBN131088 ILJ131076:ILJ131088 IVF131076:IVF131088 JFB131076:JFB131088 JOX131076:JOX131088 JYT131076:JYT131088 KIP131076:KIP131088 KSL131076:KSL131088 LCH131076:LCH131088 LMD131076:LMD131088 LVZ131076:LVZ131088 MFV131076:MFV131088 MPR131076:MPR131088 MZN131076:MZN131088 NJJ131076:NJJ131088 NTF131076:NTF131088 ODB131076:ODB131088 OMX131076:OMX131088 OWT131076:OWT131088 PGP131076:PGP131088 PQL131076:PQL131088 QAH131076:QAH131088 QKD131076:QKD131088 QTZ131076:QTZ131088 RDV131076:RDV131088 RNR131076:RNR131088 RXN131076:RXN131088 SHJ131076:SHJ131088 SRF131076:SRF131088 TBB131076:TBB131088 TKX131076:TKX131088 TUT131076:TUT131088 UEP131076:UEP131088 UOL131076:UOL131088 UYH131076:UYH131088 VID131076:VID131088 VRZ131076:VRZ131088 WBV131076:WBV131088 WLR131076:WLR131088 WVN131076:WVN131088 F196612:F196624 JB196612:JB196624 SX196612:SX196624 ACT196612:ACT196624 AMP196612:AMP196624 AWL196612:AWL196624 BGH196612:BGH196624 BQD196612:BQD196624 BZZ196612:BZZ196624 CJV196612:CJV196624 CTR196612:CTR196624 DDN196612:DDN196624 DNJ196612:DNJ196624 DXF196612:DXF196624 EHB196612:EHB196624 EQX196612:EQX196624 FAT196612:FAT196624 FKP196612:FKP196624 FUL196612:FUL196624 GEH196612:GEH196624 GOD196612:GOD196624 GXZ196612:GXZ196624 HHV196612:HHV196624 HRR196612:HRR196624 IBN196612:IBN196624 ILJ196612:ILJ196624 IVF196612:IVF196624 JFB196612:JFB196624 JOX196612:JOX196624 JYT196612:JYT196624 KIP196612:KIP196624 KSL196612:KSL196624 LCH196612:LCH196624 LMD196612:LMD196624 LVZ196612:LVZ196624 MFV196612:MFV196624 MPR196612:MPR196624 MZN196612:MZN196624 NJJ196612:NJJ196624 NTF196612:NTF196624 ODB196612:ODB196624 OMX196612:OMX196624 OWT196612:OWT196624 PGP196612:PGP196624 PQL196612:PQL196624 QAH196612:QAH196624 QKD196612:QKD196624 QTZ196612:QTZ196624 RDV196612:RDV196624 RNR196612:RNR196624 RXN196612:RXN196624 SHJ196612:SHJ196624 SRF196612:SRF196624 TBB196612:TBB196624 TKX196612:TKX196624 TUT196612:TUT196624 UEP196612:UEP196624 UOL196612:UOL196624 UYH196612:UYH196624 VID196612:VID196624 VRZ196612:VRZ196624 WBV196612:WBV196624 WLR196612:WLR196624 WVN196612:WVN196624 F262148:F262160 JB262148:JB262160 SX262148:SX262160 ACT262148:ACT262160 AMP262148:AMP262160 AWL262148:AWL262160 BGH262148:BGH262160 BQD262148:BQD262160 BZZ262148:BZZ262160 CJV262148:CJV262160 CTR262148:CTR262160 DDN262148:DDN262160 DNJ262148:DNJ262160 DXF262148:DXF262160 EHB262148:EHB262160 EQX262148:EQX262160 FAT262148:FAT262160 FKP262148:FKP262160 FUL262148:FUL262160 GEH262148:GEH262160 GOD262148:GOD262160 GXZ262148:GXZ262160 HHV262148:HHV262160 HRR262148:HRR262160 IBN262148:IBN262160 ILJ262148:ILJ262160 IVF262148:IVF262160 JFB262148:JFB262160 JOX262148:JOX262160 JYT262148:JYT262160 KIP262148:KIP262160 KSL262148:KSL262160 LCH262148:LCH262160 LMD262148:LMD262160 LVZ262148:LVZ262160 MFV262148:MFV262160 MPR262148:MPR262160 MZN262148:MZN262160 NJJ262148:NJJ262160 NTF262148:NTF262160 ODB262148:ODB262160 OMX262148:OMX262160 OWT262148:OWT262160 PGP262148:PGP262160 PQL262148:PQL262160 QAH262148:QAH262160 QKD262148:QKD262160 QTZ262148:QTZ262160 RDV262148:RDV262160 RNR262148:RNR262160 RXN262148:RXN262160 SHJ262148:SHJ262160 SRF262148:SRF262160 TBB262148:TBB262160 TKX262148:TKX262160 TUT262148:TUT262160 UEP262148:UEP262160 UOL262148:UOL262160 UYH262148:UYH262160 VID262148:VID262160 VRZ262148:VRZ262160 WBV262148:WBV262160 WLR262148:WLR262160 WVN262148:WVN262160 F327684:F327696 JB327684:JB327696 SX327684:SX327696 ACT327684:ACT327696 AMP327684:AMP327696 AWL327684:AWL327696 BGH327684:BGH327696 BQD327684:BQD327696 BZZ327684:BZZ327696 CJV327684:CJV327696 CTR327684:CTR327696 DDN327684:DDN327696 DNJ327684:DNJ327696 DXF327684:DXF327696 EHB327684:EHB327696 EQX327684:EQX327696 FAT327684:FAT327696 FKP327684:FKP327696 FUL327684:FUL327696 GEH327684:GEH327696 GOD327684:GOD327696 GXZ327684:GXZ327696 HHV327684:HHV327696 HRR327684:HRR327696 IBN327684:IBN327696 ILJ327684:ILJ327696 IVF327684:IVF327696 JFB327684:JFB327696 JOX327684:JOX327696 JYT327684:JYT327696 KIP327684:KIP327696 KSL327684:KSL327696 LCH327684:LCH327696 LMD327684:LMD327696 LVZ327684:LVZ327696 MFV327684:MFV327696 MPR327684:MPR327696 MZN327684:MZN327696 NJJ327684:NJJ327696 NTF327684:NTF327696 ODB327684:ODB327696 OMX327684:OMX327696 OWT327684:OWT327696 PGP327684:PGP327696 PQL327684:PQL327696 QAH327684:QAH327696 QKD327684:QKD327696 QTZ327684:QTZ327696 RDV327684:RDV327696 RNR327684:RNR327696 RXN327684:RXN327696 SHJ327684:SHJ327696 SRF327684:SRF327696 TBB327684:TBB327696 TKX327684:TKX327696 TUT327684:TUT327696 UEP327684:UEP327696 UOL327684:UOL327696 UYH327684:UYH327696 VID327684:VID327696 VRZ327684:VRZ327696 WBV327684:WBV327696 WLR327684:WLR327696 WVN327684:WVN327696 F393220:F393232 JB393220:JB393232 SX393220:SX393232 ACT393220:ACT393232 AMP393220:AMP393232 AWL393220:AWL393232 BGH393220:BGH393232 BQD393220:BQD393232 BZZ393220:BZZ393232 CJV393220:CJV393232 CTR393220:CTR393232 DDN393220:DDN393232 DNJ393220:DNJ393232 DXF393220:DXF393232 EHB393220:EHB393232 EQX393220:EQX393232 FAT393220:FAT393232 FKP393220:FKP393232 FUL393220:FUL393232 GEH393220:GEH393232 GOD393220:GOD393232 GXZ393220:GXZ393232 HHV393220:HHV393232 HRR393220:HRR393232 IBN393220:IBN393232 ILJ393220:ILJ393232 IVF393220:IVF393232 JFB393220:JFB393232 JOX393220:JOX393232 JYT393220:JYT393232 KIP393220:KIP393232 KSL393220:KSL393232 LCH393220:LCH393232 LMD393220:LMD393232 LVZ393220:LVZ393232 MFV393220:MFV393232 MPR393220:MPR393232 MZN393220:MZN393232 NJJ393220:NJJ393232 NTF393220:NTF393232 ODB393220:ODB393232 OMX393220:OMX393232 OWT393220:OWT393232 PGP393220:PGP393232 PQL393220:PQL393232 QAH393220:QAH393232 QKD393220:QKD393232 QTZ393220:QTZ393232 RDV393220:RDV393232 RNR393220:RNR393232 RXN393220:RXN393232 SHJ393220:SHJ393232 SRF393220:SRF393232 TBB393220:TBB393232 TKX393220:TKX393232 TUT393220:TUT393232 UEP393220:UEP393232 UOL393220:UOL393232 UYH393220:UYH393232 VID393220:VID393232 VRZ393220:VRZ393232 WBV393220:WBV393232 WLR393220:WLR393232 WVN393220:WVN393232 F458756:F458768 JB458756:JB458768 SX458756:SX458768 ACT458756:ACT458768 AMP458756:AMP458768 AWL458756:AWL458768 BGH458756:BGH458768 BQD458756:BQD458768 BZZ458756:BZZ458768 CJV458756:CJV458768 CTR458756:CTR458768 DDN458756:DDN458768 DNJ458756:DNJ458768 DXF458756:DXF458768 EHB458756:EHB458768 EQX458756:EQX458768 FAT458756:FAT458768 FKP458756:FKP458768 FUL458756:FUL458768 GEH458756:GEH458768 GOD458756:GOD458768 GXZ458756:GXZ458768 HHV458756:HHV458768 HRR458756:HRR458768 IBN458756:IBN458768 ILJ458756:ILJ458768 IVF458756:IVF458768 JFB458756:JFB458768 JOX458756:JOX458768 JYT458756:JYT458768 KIP458756:KIP458768 KSL458756:KSL458768 LCH458756:LCH458768 LMD458756:LMD458768 LVZ458756:LVZ458768 MFV458756:MFV458768 MPR458756:MPR458768 MZN458756:MZN458768 NJJ458756:NJJ458768 NTF458756:NTF458768 ODB458756:ODB458768 OMX458756:OMX458768 OWT458756:OWT458768 PGP458756:PGP458768 PQL458756:PQL458768 QAH458756:QAH458768 QKD458756:QKD458768 QTZ458756:QTZ458768 RDV458756:RDV458768 RNR458756:RNR458768 RXN458756:RXN458768 SHJ458756:SHJ458768 SRF458756:SRF458768 TBB458756:TBB458768 TKX458756:TKX458768 TUT458756:TUT458768 UEP458756:UEP458768 UOL458756:UOL458768 UYH458756:UYH458768 VID458756:VID458768 VRZ458756:VRZ458768 WBV458756:WBV458768 WLR458756:WLR458768 WVN458756:WVN458768 F524292:F524304 JB524292:JB524304 SX524292:SX524304 ACT524292:ACT524304 AMP524292:AMP524304 AWL524292:AWL524304 BGH524292:BGH524304 BQD524292:BQD524304 BZZ524292:BZZ524304 CJV524292:CJV524304 CTR524292:CTR524304 DDN524292:DDN524304 DNJ524292:DNJ524304 DXF524292:DXF524304 EHB524292:EHB524304 EQX524292:EQX524304 FAT524292:FAT524304 FKP524292:FKP524304 FUL524292:FUL524304 GEH524292:GEH524304 GOD524292:GOD524304 GXZ524292:GXZ524304 HHV524292:HHV524304 HRR524292:HRR524304 IBN524292:IBN524304 ILJ524292:ILJ524304 IVF524292:IVF524304 JFB524292:JFB524304 JOX524292:JOX524304 JYT524292:JYT524304 KIP524292:KIP524304 KSL524292:KSL524304 LCH524292:LCH524304 LMD524292:LMD524304 LVZ524292:LVZ524304 MFV524292:MFV524304 MPR524292:MPR524304 MZN524292:MZN524304 NJJ524292:NJJ524304 NTF524292:NTF524304 ODB524292:ODB524304 OMX524292:OMX524304 OWT524292:OWT524304 PGP524292:PGP524304 PQL524292:PQL524304 QAH524292:QAH524304 QKD524292:QKD524304 QTZ524292:QTZ524304 RDV524292:RDV524304 RNR524292:RNR524304 RXN524292:RXN524304 SHJ524292:SHJ524304 SRF524292:SRF524304 TBB524292:TBB524304 TKX524292:TKX524304 TUT524292:TUT524304 UEP524292:UEP524304 UOL524292:UOL524304 UYH524292:UYH524304 VID524292:VID524304 VRZ524292:VRZ524304 WBV524292:WBV524304 WLR524292:WLR524304 WVN524292:WVN524304 F589828:F589840 JB589828:JB589840 SX589828:SX589840 ACT589828:ACT589840 AMP589828:AMP589840 AWL589828:AWL589840 BGH589828:BGH589840 BQD589828:BQD589840 BZZ589828:BZZ589840 CJV589828:CJV589840 CTR589828:CTR589840 DDN589828:DDN589840 DNJ589828:DNJ589840 DXF589828:DXF589840 EHB589828:EHB589840 EQX589828:EQX589840 FAT589828:FAT589840 FKP589828:FKP589840 FUL589828:FUL589840 GEH589828:GEH589840 GOD589828:GOD589840 GXZ589828:GXZ589840 HHV589828:HHV589840 HRR589828:HRR589840 IBN589828:IBN589840 ILJ589828:ILJ589840 IVF589828:IVF589840 JFB589828:JFB589840 JOX589828:JOX589840 JYT589828:JYT589840 KIP589828:KIP589840 KSL589828:KSL589840 LCH589828:LCH589840 LMD589828:LMD589840 LVZ589828:LVZ589840 MFV589828:MFV589840 MPR589828:MPR589840 MZN589828:MZN589840 NJJ589828:NJJ589840 NTF589828:NTF589840 ODB589828:ODB589840 OMX589828:OMX589840 OWT589828:OWT589840 PGP589828:PGP589840 PQL589828:PQL589840 QAH589828:QAH589840 QKD589828:QKD589840 QTZ589828:QTZ589840 RDV589828:RDV589840 RNR589828:RNR589840 RXN589828:RXN589840 SHJ589828:SHJ589840 SRF589828:SRF589840 TBB589828:TBB589840 TKX589828:TKX589840 TUT589828:TUT589840 UEP589828:UEP589840 UOL589828:UOL589840 UYH589828:UYH589840 VID589828:VID589840 VRZ589828:VRZ589840 WBV589828:WBV589840 WLR589828:WLR589840 WVN589828:WVN589840 F655364:F655376 JB655364:JB655376 SX655364:SX655376 ACT655364:ACT655376 AMP655364:AMP655376 AWL655364:AWL655376 BGH655364:BGH655376 BQD655364:BQD655376 BZZ655364:BZZ655376 CJV655364:CJV655376 CTR655364:CTR655376 DDN655364:DDN655376 DNJ655364:DNJ655376 DXF655364:DXF655376 EHB655364:EHB655376 EQX655364:EQX655376 FAT655364:FAT655376 FKP655364:FKP655376 FUL655364:FUL655376 GEH655364:GEH655376 GOD655364:GOD655376 GXZ655364:GXZ655376 HHV655364:HHV655376 HRR655364:HRR655376 IBN655364:IBN655376 ILJ655364:ILJ655376 IVF655364:IVF655376 JFB655364:JFB655376 JOX655364:JOX655376 JYT655364:JYT655376 KIP655364:KIP655376 KSL655364:KSL655376 LCH655364:LCH655376 LMD655364:LMD655376 LVZ655364:LVZ655376 MFV655364:MFV655376 MPR655364:MPR655376 MZN655364:MZN655376 NJJ655364:NJJ655376 NTF655364:NTF655376 ODB655364:ODB655376 OMX655364:OMX655376 OWT655364:OWT655376 PGP655364:PGP655376 PQL655364:PQL655376 QAH655364:QAH655376 QKD655364:QKD655376 QTZ655364:QTZ655376 RDV655364:RDV655376 RNR655364:RNR655376 RXN655364:RXN655376 SHJ655364:SHJ655376 SRF655364:SRF655376 TBB655364:TBB655376 TKX655364:TKX655376 TUT655364:TUT655376 UEP655364:UEP655376 UOL655364:UOL655376 UYH655364:UYH655376 VID655364:VID655376 VRZ655364:VRZ655376 WBV655364:WBV655376 WLR655364:WLR655376 WVN655364:WVN655376 F720900:F720912 JB720900:JB720912 SX720900:SX720912 ACT720900:ACT720912 AMP720900:AMP720912 AWL720900:AWL720912 BGH720900:BGH720912 BQD720900:BQD720912 BZZ720900:BZZ720912 CJV720900:CJV720912 CTR720900:CTR720912 DDN720900:DDN720912 DNJ720900:DNJ720912 DXF720900:DXF720912 EHB720900:EHB720912 EQX720900:EQX720912 FAT720900:FAT720912 FKP720900:FKP720912 FUL720900:FUL720912 GEH720900:GEH720912 GOD720900:GOD720912 GXZ720900:GXZ720912 HHV720900:HHV720912 HRR720900:HRR720912 IBN720900:IBN720912 ILJ720900:ILJ720912 IVF720900:IVF720912 JFB720900:JFB720912 JOX720900:JOX720912 JYT720900:JYT720912 KIP720900:KIP720912 KSL720900:KSL720912 LCH720900:LCH720912 LMD720900:LMD720912 LVZ720900:LVZ720912 MFV720900:MFV720912 MPR720900:MPR720912 MZN720900:MZN720912 NJJ720900:NJJ720912 NTF720900:NTF720912 ODB720900:ODB720912 OMX720900:OMX720912 OWT720900:OWT720912 PGP720900:PGP720912 PQL720900:PQL720912 QAH720900:QAH720912 QKD720900:QKD720912 QTZ720900:QTZ720912 RDV720900:RDV720912 RNR720900:RNR720912 RXN720900:RXN720912 SHJ720900:SHJ720912 SRF720900:SRF720912 TBB720900:TBB720912 TKX720900:TKX720912 TUT720900:TUT720912 UEP720900:UEP720912 UOL720900:UOL720912 UYH720900:UYH720912 VID720900:VID720912 VRZ720900:VRZ720912 WBV720900:WBV720912 WLR720900:WLR720912 WVN720900:WVN720912 F786436:F786448 JB786436:JB786448 SX786436:SX786448 ACT786436:ACT786448 AMP786436:AMP786448 AWL786436:AWL786448 BGH786436:BGH786448 BQD786436:BQD786448 BZZ786436:BZZ786448 CJV786436:CJV786448 CTR786436:CTR786448 DDN786436:DDN786448 DNJ786436:DNJ786448 DXF786436:DXF786448 EHB786436:EHB786448 EQX786436:EQX786448 FAT786436:FAT786448 FKP786436:FKP786448 FUL786436:FUL786448 GEH786436:GEH786448 GOD786436:GOD786448 GXZ786436:GXZ786448 HHV786436:HHV786448 HRR786436:HRR786448 IBN786436:IBN786448 ILJ786436:ILJ786448 IVF786436:IVF786448 JFB786436:JFB786448 JOX786436:JOX786448 JYT786436:JYT786448 KIP786436:KIP786448 KSL786436:KSL786448 LCH786436:LCH786448 LMD786436:LMD786448 LVZ786436:LVZ786448 MFV786436:MFV786448 MPR786436:MPR786448 MZN786436:MZN786448 NJJ786436:NJJ786448 NTF786436:NTF786448 ODB786436:ODB786448 OMX786436:OMX786448 OWT786436:OWT786448 PGP786436:PGP786448 PQL786436:PQL786448 QAH786436:QAH786448 QKD786436:QKD786448 QTZ786436:QTZ786448 RDV786436:RDV786448 RNR786436:RNR786448 RXN786436:RXN786448 SHJ786436:SHJ786448 SRF786436:SRF786448 TBB786436:TBB786448 TKX786436:TKX786448 TUT786436:TUT786448 UEP786436:UEP786448 UOL786436:UOL786448 UYH786436:UYH786448 VID786436:VID786448 VRZ786436:VRZ786448 WBV786436:WBV786448 WLR786436:WLR786448 WVN786436:WVN786448 F851972:F851984 JB851972:JB851984 SX851972:SX851984 ACT851972:ACT851984 AMP851972:AMP851984 AWL851972:AWL851984 BGH851972:BGH851984 BQD851972:BQD851984 BZZ851972:BZZ851984 CJV851972:CJV851984 CTR851972:CTR851984 DDN851972:DDN851984 DNJ851972:DNJ851984 DXF851972:DXF851984 EHB851972:EHB851984 EQX851972:EQX851984 FAT851972:FAT851984 FKP851972:FKP851984 FUL851972:FUL851984 GEH851972:GEH851984 GOD851972:GOD851984 GXZ851972:GXZ851984 HHV851972:HHV851984 HRR851972:HRR851984 IBN851972:IBN851984 ILJ851972:ILJ851984 IVF851972:IVF851984 JFB851972:JFB851984 JOX851972:JOX851984 JYT851972:JYT851984 KIP851972:KIP851984 KSL851972:KSL851984 LCH851972:LCH851984 LMD851972:LMD851984 LVZ851972:LVZ851984 MFV851972:MFV851984 MPR851972:MPR851984 MZN851972:MZN851984 NJJ851972:NJJ851984 NTF851972:NTF851984 ODB851972:ODB851984 OMX851972:OMX851984 OWT851972:OWT851984 PGP851972:PGP851984 PQL851972:PQL851984 QAH851972:QAH851984 QKD851972:QKD851984 QTZ851972:QTZ851984 RDV851972:RDV851984 RNR851972:RNR851984 RXN851972:RXN851984 SHJ851972:SHJ851984 SRF851972:SRF851984 TBB851972:TBB851984 TKX851972:TKX851984 TUT851972:TUT851984 UEP851972:UEP851984 UOL851972:UOL851984 UYH851972:UYH851984 VID851972:VID851984 VRZ851972:VRZ851984 WBV851972:WBV851984 WLR851972:WLR851984 WVN851972:WVN851984 F917508:F917520 JB917508:JB917520 SX917508:SX917520 ACT917508:ACT917520 AMP917508:AMP917520 AWL917508:AWL917520 BGH917508:BGH917520 BQD917508:BQD917520 BZZ917508:BZZ917520 CJV917508:CJV917520 CTR917508:CTR917520 DDN917508:DDN917520 DNJ917508:DNJ917520 DXF917508:DXF917520 EHB917508:EHB917520 EQX917508:EQX917520 FAT917508:FAT917520 FKP917508:FKP917520 FUL917508:FUL917520 GEH917508:GEH917520 GOD917508:GOD917520 GXZ917508:GXZ917520 HHV917508:HHV917520 HRR917508:HRR917520 IBN917508:IBN917520 ILJ917508:ILJ917520 IVF917508:IVF917520 JFB917508:JFB917520 JOX917508:JOX917520 JYT917508:JYT917520 KIP917508:KIP917520 KSL917508:KSL917520 LCH917508:LCH917520 LMD917508:LMD917520 LVZ917508:LVZ917520 MFV917508:MFV917520 MPR917508:MPR917520 MZN917508:MZN917520 NJJ917508:NJJ917520 NTF917508:NTF917520 ODB917508:ODB917520 OMX917508:OMX917520 OWT917508:OWT917520 PGP917508:PGP917520 PQL917508:PQL917520 QAH917508:QAH917520 QKD917508:QKD917520 QTZ917508:QTZ917520 RDV917508:RDV917520 RNR917508:RNR917520 RXN917508:RXN917520 SHJ917508:SHJ917520 SRF917508:SRF917520 TBB917508:TBB917520 TKX917508:TKX917520 TUT917508:TUT917520 UEP917508:UEP917520 UOL917508:UOL917520 UYH917508:UYH917520 VID917508:VID917520 VRZ917508:VRZ917520 WBV917508:WBV917520 WLR917508:WLR917520 WVN917508:WVN917520 F983044:F983056 JB983044:JB983056 SX983044:SX983056 ACT983044:ACT983056 AMP983044:AMP983056 AWL983044:AWL983056 BGH983044:BGH983056 BQD983044:BQD983056 BZZ983044:BZZ983056 CJV983044:CJV983056 CTR983044:CTR983056 DDN983044:DDN983056 DNJ983044:DNJ983056 DXF983044:DXF983056 EHB983044:EHB983056 EQX983044:EQX983056 FAT983044:FAT983056 FKP983044:FKP983056 FUL983044:FUL983056 GEH983044:GEH983056 GOD983044:GOD983056 GXZ983044:GXZ983056 HHV983044:HHV983056 HRR983044:HRR983056 IBN983044:IBN983056 ILJ983044:ILJ983056 IVF983044:IVF983056 JFB983044:JFB983056 JOX983044:JOX983056 JYT983044:JYT983056 KIP983044:KIP983056 KSL983044:KSL983056 LCH983044:LCH983056 LMD983044:LMD983056 LVZ983044:LVZ983056 MFV983044:MFV983056 MPR983044:MPR983056 MZN983044:MZN983056 NJJ983044:NJJ983056 NTF983044:NTF983056 ODB983044:ODB983056 OMX983044:OMX983056 OWT983044:OWT983056 PGP983044:PGP983056 PQL983044:PQL983056 QAH983044:QAH983056 QKD983044:QKD983056 QTZ983044:QTZ983056 RDV983044:RDV983056 RNR983044:RNR983056 RXN983044:RXN983056 SHJ983044:SHJ983056 SRF983044:SRF983056 TBB983044:TBB983056 TKX983044:TKX983056 TUT983044:TUT983056 UEP983044:UEP983056 UOL983044:UOL983056 UYH983044:UYH983056 VID983044:VID983056 VRZ983044:VRZ983056 WBV983044:WBV983056 WLR983044:WLR983056 F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983044:WVN983056 F65540:F65552 JB65540:JB65552 SX65540:SX65552 ACT65540:ACT65552 AMP65540:AMP65552 AWL65540:AWL65552 BGH65540:BGH65552 BQD65540:BQD65552 BZZ65540:BZZ65552 CJV65540:CJV65552 CTR65540:CTR65552 DDN65540:DDN65552 DNJ65540:DNJ65552 DXF65540:DXF65552 EHB65540:EHB65552 EQX65540:EQX65552 FAT65540:FAT65552 FKP65540:FKP65552 FUL65540:FUL65552 GEH65540:GEH65552 GOD65540:GOD65552 GXZ65540:GXZ65552 HHV65540:HHV65552 HRR65540:HRR65552 IBN65540:IBN65552 ILJ65540:ILJ65552 IVF65540:IVF65552 JFB65540:JFB65552 JOX65540:JOX65552 JYT65540:JYT65552 KIP65540:KIP65552 KSL65540:KSL65552 LCH65540:LCH65552 LMD65540:LMD65552 LVZ65540:LVZ65552 MFV65540:MFV65552 MPR65540:MPR65552 MZN65540:MZN65552 NJJ65540:NJJ65552 NTF65540:NTF65552 ODB65540:ODB65552 OMX65540:OMX65552 OWT65540:OWT65552 PGP65540:PGP65552 PQL65540:PQL65552 QAH65540:QAH65552 QKD65540:QKD65552 QTZ65540:QTZ65552 RDV65540:RDV65552 RNR65540:RNR65552 RXN65540:RXN65552 SHJ65540:SHJ65552 SRF65540:SRF65552 TBB65540:TBB65552 TKX65540:TKX65552 TUT65540:TUT65552 UEP65540:UEP65552 UOL65540:UOL65552 UYH65540:UYH65552 VID65540:VID65552 VRZ65540:VRZ65552 WBV65540:WBV65552 WLR65540:WLR65552 WVN65540:WVN65552 F131076:F131088 JB131076:JB131088 SX131076:SX131088 ACT131076:ACT131088 AMP131076:AMP131088 AWL131076:AWL131088 BGH131076:BGH131088 BQD131076:BQD131088 BZZ131076:BZZ131088 CJV131076:CJV131088 CTR131076:CTR131088 DDN131076:DDN131088 DNJ131076:DNJ131088 DXF131076:DXF131088 EHB131076:EHB131088 EQX131076:EQX131088 FAT131076:FAT131088 FKP131076:FKP131088 FUL131076:FUL131088 GEH131076:GEH131088 GOD131076:GOD131088 GXZ131076:GXZ131088 HHV131076:HHV131088 HRR131076:HRR131088 IBN131076:IBN131088 ILJ131076:ILJ131088 IVF131076:IVF131088 JFB131076:JFB131088 JOX131076:JOX131088 JYT131076:JYT131088 KIP131076:KIP131088 KSL131076:KSL131088 LCH131076:LCH131088 LMD131076:LMD131088 LVZ131076:LVZ131088 MFV131076:MFV131088 MPR131076:MPR131088 MZN131076:MZN131088 NJJ131076:NJJ131088 NTF131076:NTF131088 ODB131076:ODB131088 OMX131076:OMX131088 OWT131076:OWT131088 PGP131076:PGP131088 PQL131076:PQL131088 QAH131076:QAH131088 QKD131076:QKD131088 QTZ131076:QTZ131088 RDV131076:RDV131088 RNR131076:RNR131088 RXN131076:RXN131088 SHJ131076:SHJ131088 SRF131076:SRF131088 TBB131076:TBB131088 TKX131076:TKX131088 TUT131076:TUT131088 UEP131076:UEP131088 UOL131076:UOL131088 UYH131076:UYH131088 VID131076:VID131088 VRZ131076:VRZ131088 WBV131076:WBV131088 WLR131076:WLR131088 WVN131076:WVN131088 F196612:F196624 JB196612:JB196624 SX196612:SX196624 ACT196612:ACT196624 AMP196612:AMP196624 AWL196612:AWL196624 BGH196612:BGH196624 BQD196612:BQD196624 BZZ196612:BZZ196624 CJV196612:CJV196624 CTR196612:CTR196624 DDN196612:DDN196624 DNJ196612:DNJ196624 DXF196612:DXF196624 EHB196612:EHB196624 EQX196612:EQX196624 FAT196612:FAT196624 FKP196612:FKP196624 FUL196612:FUL196624 GEH196612:GEH196624 GOD196612:GOD196624 GXZ196612:GXZ196624 HHV196612:HHV196624 HRR196612:HRR196624 IBN196612:IBN196624 ILJ196612:ILJ196624 IVF196612:IVF196624 JFB196612:JFB196624 JOX196612:JOX196624 JYT196612:JYT196624 KIP196612:KIP196624 KSL196612:KSL196624 LCH196612:LCH196624 LMD196612:LMD196624 LVZ196612:LVZ196624 MFV196612:MFV196624 MPR196612:MPR196624 MZN196612:MZN196624 NJJ196612:NJJ196624 NTF196612:NTF196624 ODB196612:ODB196624 OMX196612:OMX196624 OWT196612:OWT196624 PGP196612:PGP196624 PQL196612:PQL196624 QAH196612:QAH196624 QKD196612:QKD196624 QTZ196612:QTZ196624 RDV196612:RDV196624 RNR196612:RNR196624 RXN196612:RXN196624 SHJ196612:SHJ196624 SRF196612:SRF196624 TBB196612:TBB196624 TKX196612:TKX196624 TUT196612:TUT196624 UEP196612:UEP196624 UOL196612:UOL196624 UYH196612:UYH196624 VID196612:VID196624 VRZ196612:VRZ196624 WBV196612:WBV196624 WLR196612:WLR196624 WVN196612:WVN196624 F262148:F262160 JB262148:JB262160 SX262148:SX262160 ACT262148:ACT262160 AMP262148:AMP262160 AWL262148:AWL262160 BGH262148:BGH262160 BQD262148:BQD262160 BZZ262148:BZZ262160 CJV262148:CJV262160 CTR262148:CTR262160 DDN262148:DDN262160 DNJ262148:DNJ262160 DXF262148:DXF262160 EHB262148:EHB262160 EQX262148:EQX262160 FAT262148:FAT262160 FKP262148:FKP262160 FUL262148:FUL262160 GEH262148:GEH262160 GOD262148:GOD262160 GXZ262148:GXZ262160 HHV262148:HHV262160 HRR262148:HRR262160 IBN262148:IBN262160 ILJ262148:ILJ262160 IVF262148:IVF262160 JFB262148:JFB262160 JOX262148:JOX262160 JYT262148:JYT262160 KIP262148:KIP262160 KSL262148:KSL262160 LCH262148:LCH262160 LMD262148:LMD262160 LVZ262148:LVZ262160 MFV262148:MFV262160 MPR262148:MPR262160 MZN262148:MZN262160 NJJ262148:NJJ262160 NTF262148:NTF262160 ODB262148:ODB262160 OMX262148:OMX262160 OWT262148:OWT262160 PGP262148:PGP262160 PQL262148:PQL262160 QAH262148:QAH262160 QKD262148:QKD262160 QTZ262148:QTZ262160 RDV262148:RDV262160 RNR262148:RNR262160 RXN262148:RXN262160 SHJ262148:SHJ262160 SRF262148:SRF262160 TBB262148:TBB262160 TKX262148:TKX262160 TUT262148:TUT262160 UEP262148:UEP262160 UOL262148:UOL262160 UYH262148:UYH262160 VID262148:VID262160 VRZ262148:VRZ262160 WBV262148:WBV262160 WLR262148:WLR262160 WVN262148:WVN262160 F327684:F327696 JB327684:JB327696 SX327684:SX327696 ACT327684:ACT327696 AMP327684:AMP327696 AWL327684:AWL327696 BGH327684:BGH327696 BQD327684:BQD327696 BZZ327684:BZZ327696 CJV327684:CJV327696 CTR327684:CTR327696 DDN327684:DDN327696 DNJ327684:DNJ327696 DXF327684:DXF327696 EHB327684:EHB327696 EQX327684:EQX327696 FAT327684:FAT327696 FKP327684:FKP327696 FUL327684:FUL327696 GEH327684:GEH327696 GOD327684:GOD327696 GXZ327684:GXZ327696 HHV327684:HHV327696 HRR327684:HRR327696 IBN327684:IBN327696 ILJ327684:ILJ327696 IVF327684:IVF327696 JFB327684:JFB327696 JOX327684:JOX327696 JYT327684:JYT327696 KIP327684:KIP327696 KSL327684:KSL327696 LCH327684:LCH327696 LMD327684:LMD327696 LVZ327684:LVZ327696 MFV327684:MFV327696 MPR327684:MPR327696 MZN327684:MZN327696 NJJ327684:NJJ327696 NTF327684:NTF327696 ODB327684:ODB327696 OMX327684:OMX327696 OWT327684:OWT327696 PGP327684:PGP327696 PQL327684:PQL327696 QAH327684:QAH327696 QKD327684:QKD327696 QTZ327684:QTZ327696 RDV327684:RDV327696 RNR327684:RNR327696 RXN327684:RXN327696 SHJ327684:SHJ327696 SRF327684:SRF327696 TBB327684:TBB327696 TKX327684:TKX327696 TUT327684:TUT327696 UEP327684:UEP327696 UOL327684:UOL327696 UYH327684:UYH327696 VID327684:VID327696 VRZ327684:VRZ327696 WBV327684:WBV327696 WLR327684:WLR327696 WVN327684:WVN327696 F393220:F393232 JB393220:JB393232 SX393220:SX393232 ACT393220:ACT393232 AMP393220:AMP393232 AWL393220:AWL393232 BGH393220:BGH393232 BQD393220:BQD393232 BZZ393220:BZZ393232 CJV393220:CJV393232 CTR393220:CTR393232 DDN393220:DDN393232 DNJ393220:DNJ393232 DXF393220:DXF393232 EHB393220:EHB393232 EQX393220:EQX393232 FAT393220:FAT393232 FKP393220:FKP393232 FUL393220:FUL393232 GEH393220:GEH393232 GOD393220:GOD393232 GXZ393220:GXZ393232 HHV393220:HHV393232 HRR393220:HRR393232 IBN393220:IBN393232 ILJ393220:ILJ393232 IVF393220:IVF393232 JFB393220:JFB393232 JOX393220:JOX393232 JYT393220:JYT393232 KIP393220:KIP393232 KSL393220:KSL393232 LCH393220:LCH393232 LMD393220:LMD393232 LVZ393220:LVZ393232 MFV393220:MFV393232 MPR393220:MPR393232 MZN393220:MZN393232 NJJ393220:NJJ393232 NTF393220:NTF393232 ODB393220:ODB393232 OMX393220:OMX393232 OWT393220:OWT393232 PGP393220:PGP393232 PQL393220:PQL393232 QAH393220:QAH393232 QKD393220:QKD393232 QTZ393220:QTZ393232 RDV393220:RDV393232 RNR393220:RNR393232 RXN393220:RXN393232 SHJ393220:SHJ393232 SRF393220:SRF393232 TBB393220:TBB393232 TKX393220:TKX393232 TUT393220:TUT393232 UEP393220:UEP393232 UOL393220:UOL393232 UYH393220:UYH393232 VID393220:VID393232 VRZ393220:VRZ393232 WBV393220:WBV393232 WLR393220:WLR393232 WVN393220:WVN393232 F458756:F458768 JB458756:JB458768 SX458756:SX458768 ACT458756:ACT458768 AMP458756:AMP458768 AWL458756:AWL458768 BGH458756:BGH458768 BQD458756:BQD458768 BZZ458756:BZZ458768 CJV458756:CJV458768 CTR458756:CTR458768 DDN458756:DDN458768 DNJ458756:DNJ458768 DXF458756:DXF458768 EHB458756:EHB458768 EQX458756:EQX458768 FAT458756:FAT458768 FKP458756:FKP458768 FUL458756:FUL458768 GEH458756:GEH458768 GOD458756:GOD458768 GXZ458756:GXZ458768 HHV458756:HHV458768 HRR458756:HRR458768 IBN458756:IBN458768 ILJ458756:ILJ458768 IVF458756:IVF458768 JFB458756:JFB458768 JOX458756:JOX458768 JYT458756:JYT458768 KIP458756:KIP458768 KSL458756:KSL458768 LCH458756:LCH458768 LMD458756:LMD458768 LVZ458756:LVZ458768 MFV458756:MFV458768 MPR458756:MPR458768 MZN458756:MZN458768 NJJ458756:NJJ458768 NTF458756:NTF458768 ODB458756:ODB458768 OMX458756:OMX458768 OWT458756:OWT458768 PGP458756:PGP458768 PQL458756:PQL458768 QAH458756:QAH458768 QKD458756:QKD458768 QTZ458756:QTZ458768 RDV458756:RDV458768 RNR458756:RNR458768 RXN458756:RXN458768 SHJ458756:SHJ458768 SRF458756:SRF458768 TBB458756:TBB458768 TKX458756:TKX458768 TUT458756:TUT458768 UEP458756:UEP458768 UOL458756:UOL458768 UYH458756:UYH458768 VID458756:VID458768 VRZ458756:VRZ458768 WBV458756:WBV458768 WLR458756:WLR458768 WVN458756:WVN458768 F524292:F524304 JB524292:JB524304 SX524292:SX524304 ACT524292:ACT524304 AMP524292:AMP524304 AWL524292:AWL524304 BGH524292:BGH524304 BQD524292:BQD524304 BZZ524292:BZZ524304 CJV524292:CJV524304 CTR524292:CTR524304 DDN524292:DDN524304 DNJ524292:DNJ524304 DXF524292:DXF524304 EHB524292:EHB524304 EQX524292:EQX524304 FAT524292:FAT524304 FKP524292:FKP524304 FUL524292:FUL524304 GEH524292:GEH524304 GOD524292:GOD524304 GXZ524292:GXZ524304 HHV524292:HHV524304 HRR524292:HRR524304 IBN524292:IBN524304 ILJ524292:ILJ524304 IVF524292:IVF524304 JFB524292:JFB524304 JOX524292:JOX524304 JYT524292:JYT524304 KIP524292:KIP524304 KSL524292:KSL524304 LCH524292:LCH524304 LMD524292:LMD524304 LVZ524292:LVZ524304 MFV524292:MFV524304 MPR524292:MPR524304 MZN524292:MZN524304 NJJ524292:NJJ524304 NTF524292:NTF524304 ODB524292:ODB524304 OMX524292:OMX524304 OWT524292:OWT524304 PGP524292:PGP524304 PQL524292:PQL524304 QAH524292:QAH524304 QKD524292:QKD524304 QTZ524292:QTZ524304 RDV524292:RDV524304 RNR524292:RNR524304 RXN524292:RXN524304 SHJ524292:SHJ524304 SRF524292:SRF524304 TBB524292:TBB524304 TKX524292:TKX524304 TUT524292:TUT524304 UEP524292:UEP524304 UOL524292:UOL524304 UYH524292:UYH524304 VID524292:VID524304 VRZ524292:VRZ524304 WBV524292:WBV524304 WLR524292:WLR524304 WVN524292:WVN524304 F589828:F589840 JB589828:JB589840 SX589828:SX589840 ACT589828:ACT589840 AMP589828:AMP589840 AWL589828:AWL589840 BGH589828:BGH589840 BQD589828:BQD589840 BZZ589828:BZZ589840 CJV589828:CJV589840 CTR589828:CTR589840 DDN589828:DDN589840 DNJ589828:DNJ589840 DXF589828:DXF589840 EHB589828:EHB589840 EQX589828:EQX589840 FAT589828:FAT589840 FKP589828:FKP589840 FUL589828:FUL589840 GEH589828:GEH589840 GOD589828:GOD589840 GXZ589828:GXZ589840 HHV589828:HHV589840 HRR589828:HRR589840 IBN589828:IBN589840 ILJ589828:ILJ589840 IVF589828:IVF589840 JFB589828:JFB589840 JOX589828:JOX589840 JYT589828:JYT589840 KIP589828:KIP589840 KSL589828:KSL589840 LCH589828:LCH589840 LMD589828:LMD589840 LVZ589828:LVZ589840 MFV589828:MFV589840 MPR589828:MPR589840 MZN589828:MZN589840 NJJ589828:NJJ589840 NTF589828:NTF589840 ODB589828:ODB589840 OMX589828:OMX589840 OWT589828:OWT589840 PGP589828:PGP589840 PQL589828:PQL589840 QAH589828:QAH589840 QKD589828:QKD589840 QTZ589828:QTZ589840 RDV589828:RDV589840 RNR589828:RNR589840 RXN589828:RXN589840 SHJ589828:SHJ589840 SRF589828:SRF589840 TBB589828:TBB589840 TKX589828:TKX589840 TUT589828:TUT589840 UEP589828:UEP589840 UOL589828:UOL589840 UYH589828:UYH589840 VID589828:VID589840 VRZ589828:VRZ589840 WBV589828:WBV589840 WLR589828:WLR589840 WVN589828:WVN589840 F655364:F655376 JB655364:JB655376 SX655364:SX655376 ACT655364:ACT655376 AMP655364:AMP655376 AWL655364:AWL655376 BGH655364:BGH655376 BQD655364:BQD655376 BZZ655364:BZZ655376 CJV655364:CJV655376 CTR655364:CTR655376 DDN655364:DDN655376 DNJ655364:DNJ655376 DXF655364:DXF655376 EHB655364:EHB655376 EQX655364:EQX655376 FAT655364:FAT655376 FKP655364:FKP655376 FUL655364:FUL655376 GEH655364:GEH655376 GOD655364:GOD655376 GXZ655364:GXZ655376 HHV655364:HHV655376 HRR655364:HRR655376 IBN655364:IBN655376 ILJ655364:ILJ655376 IVF655364:IVF655376 JFB655364:JFB655376 JOX655364:JOX655376 JYT655364:JYT655376 KIP655364:KIP655376 KSL655364:KSL655376 LCH655364:LCH655376 LMD655364:LMD655376 LVZ655364:LVZ655376 MFV655364:MFV655376 MPR655364:MPR655376 MZN655364:MZN655376 NJJ655364:NJJ655376 NTF655364:NTF655376 ODB655364:ODB655376 OMX655364:OMX655376 OWT655364:OWT655376 PGP655364:PGP655376 PQL655364:PQL655376 QAH655364:QAH655376 QKD655364:QKD655376 QTZ655364:QTZ655376 RDV655364:RDV655376 RNR655364:RNR655376 RXN655364:RXN655376 SHJ655364:SHJ655376 SRF655364:SRF655376 TBB655364:TBB655376 TKX655364:TKX655376 TUT655364:TUT655376 UEP655364:UEP655376 UOL655364:UOL655376 UYH655364:UYH655376 VID655364:VID655376 VRZ655364:VRZ655376 WBV655364:WBV655376 WLR655364:WLR655376 WVN655364:WVN655376 F720900:F720912 JB720900:JB720912 SX720900:SX720912 ACT720900:ACT720912 AMP720900:AMP720912 AWL720900:AWL720912 BGH720900:BGH720912 BQD720900:BQD720912 BZZ720900:BZZ720912 CJV720900:CJV720912 CTR720900:CTR720912 DDN720900:DDN720912 DNJ720900:DNJ720912 DXF720900:DXF720912 EHB720900:EHB720912 EQX720900:EQX720912 FAT720900:FAT720912 FKP720900:FKP720912 FUL720900:FUL720912 GEH720900:GEH720912 GOD720900:GOD720912 GXZ720900:GXZ720912 HHV720900:HHV720912 HRR720900:HRR720912 IBN720900:IBN720912 ILJ720900:ILJ720912 IVF720900:IVF720912 JFB720900:JFB720912 JOX720900:JOX720912 JYT720900:JYT720912 KIP720900:KIP720912 KSL720900:KSL720912 LCH720900:LCH720912 LMD720900:LMD720912 LVZ720900:LVZ720912 MFV720900:MFV720912 MPR720900:MPR720912 MZN720900:MZN720912 NJJ720900:NJJ720912 NTF720900:NTF720912 ODB720900:ODB720912 OMX720900:OMX720912 OWT720900:OWT720912 PGP720900:PGP720912 PQL720900:PQL720912 QAH720900:QAH720912 QKD720900:QKD720912 QTZ720900:QTZ720912 RDV720900:RDV720912 RNR720900:RNR720912 RXN720900:RXN720912 SHJ720900:SHJ720912 SRF720900:SRF720912 TBB720900:TBB720912 TKX720900:TKX720912 TUT720900:TUT720912 UEP720900:UEP720912 UOL720900:UOL720912 UYH720900:UYH720912 VID720900:VID720912 VRZ720900:VRZ720912 WBV720900:WBV720912 WLR720900:WLR720912 WVN720900:WVN720912 F786436:F786448 JB786436:JB786448 SX786436:SX786448 ACT786436:ACT786448 AMP786436:AMP786448 AWL786436:AWL786448 BGH786436:BGH786448 BQD786436:BQD786448 BZZ786436:BZZ786448 CJV786436:CJV786448 CTR786436:CTR786448 DDN786436:DDN786448 DNJ786436:DNJ786448 DXF786436:DXF786448 EHB786436:EHB786448 EQX786436:EQX786448 FAT786436:FAT786448 FKP786436:FKP786448 FUL786436:FUL786448 GEH786436:GEH786448 GOD786436:GOD786448 GXZ786436:GXZ786448 HHV786436:HHV786448 HRR786436:HRR786448 IBN786436:IBN786448 ILJ786436:ILJ786448 IVF786436:IVF786448 JFB786436:JFB786448 JOX786436:JOX786448 JYT786436:JYT786448 KIP786436:KIP786448 KSL786436:KSL786448 LCH786436:LCH786448 LMD786436:LMD786448 LVZ786436:LVZ786448 MFV786436:MFV786448 MPR786436:MPR786448 MZN786436:MZN786448 NJJ786436:NJJ786448 NTF786436:NTF786448 ODB786436:ODB786448 OMX786436:OMX786448 OWT786436:OWT786448 PGP786436:PGP786448 PQL786436:PQL786448 QAH786436:QAH786448 QKD786436:QKD786448 QTZ786436:QTZ786448 RDV786436:RDV786448 RNR786436:RNR786448 RXN786436:RXN786448 SHJ786436:SHJ786448 SRF786436:SRF786448 TBB786436:TBB786448 TKX786436:TKX786448 TUT786436:TUT786448 UEP786436:UEP786448 UOL786436:UOL786448 UYH786436:UYH786448 VID786436:VID786448 VRZ786436:VRZ786448 WBV786436:WBV786448 WLR786436:WLR786448 WVN786436:WVN786448 F851972:F851984 JB851972:JB851984 SX851972:SX851984 ACT851972:ACT851984 AMP851972:AMP851984 AWL851972:AWL851984 BGH851972:BGH851984 BQD851972:BQD851984 BZZ851972:BZZ851984 CJV851972:CJV851984 CTR851972:CTR851984 DDN851972:DDN851984 DNJ851972:DNJ851984 DXF851972:DXF851984 EHB851972:EHB851984 EQX851972:EQX851984 FAT851972:FAT851984 FKP851972:FKP851984 FUL851972:FUL851984 GEH851972:GEH851984 GOD851972:GOD851984 GXZ851972:GXZ851984 HHV851972:HHV851984 HRR851972:HRR851984 IBN851972:IBN851984 ILJ851972:ILJ851984 IVF851972:IVF851984 JFB851972:JFB851984 JOX851972:JOX851984 JYT851972:JYT851984 KIP851972:KIP851984 KSL851972:KSL851984 LCH851972:LCH851984 LMD851972:LMD851984 LVZ851972:LVZ851984 MFV851972:MFV851984 MPR851972:MPR851984 MZN851972:MZN851984 NJJ851972:NJJ851984 NTF851972:NTF851984 ODB851972:ODB851984 OMX851972:OMX851984 OWT851972:OWT851984 PGP851972:PGP851984 PQL851972:PQL851984 QAH851972:QAH851984 QKD851972:QKD851984 QTZ851972:QTZ851984 RDV851972:RDV851984 RNR851972:RNR851984 RXN851972:RXN851984 SHJ851972:SHJ851984 SRF851972:SRF851984 TBB851972:TBB851984 TKX851972:TKX851984 TUT851972:TUT851984 UEP851972:UEP851984 UOL851972:UOL851984 UYH851972:UYH851984 VID851972:VID851984 VRZ851972:VRZ851984 WBV851972:WBV851984 WLR851972:WLR851984 WVN851972:WVN851984 F917508:F917520 JB917508:JB917520 SX917508:SX917520 ACT917508:ACT917520 AMP917508:AMP917520 AWL917508:AWL917520 BGH917508:BGH917520 BQD917508:BQD917520 BZZ917508:BZZ917520 CJV917508:CJV917520 CTR917508:CTR917520 DDN917508:DDN917520 DNJ917508:DNJ917520 DXF917508:DXF917520 EHB917508:EHB917520 EQX917508:EQX917520 FAT917508:FAT917520 FKP917508:FKP917520 FUL917508:FUL917520 GEH917508:GEH917520 GOD917508:GOD917520 GXZ917508:GXZ917520 HHV917508:HHV917520 HRR917508:HRR917520 IBN917508:IBN917520 ILJ917508:ILJ917520 IVF917508:IVF917520 JFB917508:JFB917520 JOX917508:JOX917520 JYT917508:JYT917520 KIP917508:KIP917520 KSL917508:KSL917520 LCH917508:LCH917520 LMD917508:LMD917520 LVZ917508:LVZ917520 MFV917508:MFV917520 MPR917508:MPR917520 MZN917508:MZN917520 NJJ917508:NJJ917520 NTF917508:NTF917520 ODB917508:ODB917520 OMX917508:OMX917520 OWT917508:OWT917520 PGP917508:PGP917520 PQL917508:PQL917520 QAH917508:QAH917520 QKD917508:QKD917520 QTZ917508:QTZ917520 RDV917508:RDV917520 RNR917508:RNR917520 RXN917508:RXN917520 SHJ917508:SHJ917520 SRF917508:SRF917520 TBB917508:TBB917520 TKX917508:TKX917520 TUT917508:TUT917520 UEP917508:UEP917520 UOL917508:UOL917520 UYH917508:UYH917520 VID917508:VID917520 VRZ917508:VRZ917520 WBV917508:WBV917520 WLR917508:WLR917520 WVN917508:WVN917520 F983044:F983056 JB983044:JB983056 SX983044:SX983056 ACT983044:ACT983056 AMP983044:AMP983056 AWL983044:AWL983056 BGH983044:BGH983056 BQD983044:BQD983056 BZZ983044:BZZ983056 CJV983044:CJV983056 CTR983044:CTR983056 DDN983044:DDN983056 DNJ983044:DNJ983056 DXF983044:DXF983056 EHB983044:EHB983056 EQX983044:EQX983056 FAT983044:FAT983056 FKP983044:FKP983056 FUL983044:FUL983056 GEH983044:GEH983056 GOD983044:GOD983056 GXZ983044:GXZ983056 HHV983044:HHV983056 HRR983044:HRR983056 IBN983044:IBN983056 ILJ983044:ILJ983056 IVF983044:IVF983056 JFB983044:JFB983056 JOX983044:JOX983056 JYT983044:JYT983056 KIP983044:KIP983056 KSL983044:KSL983056 LCH983044:LCH983056 LMD983044:LMD983056 LVZ983044:LVZ983056 MFV983044:MFV983056 MPR983044:MPR983056 MZN983044:MZN983056 NJJ983044:NJJ983056 NTF983044:NTF983056 ODB983044:ODB983056 OMX983044:OMX983056 OWT983044:OWT983056 PGP983044:PGP983056 PQL983044:PQL983056 QAH983044:QAH983056 QKD983044:QKD983056 QTZ983044:QTZ983056 RDV983044:RDV983056 RNR983044:RNR983056 RXN983044:RXN983056 SHJ983044:SHJ983056 SRF983044:SRF983056 TBB983044:TBB983056 TKX983044:TKX983056 TUT983044:TUT983056 UEP983044:UEP983056 UOL983044:UOL983056 UYH983044:UYH983056 VID983044:VID983056 VRZ983044:VRZ983056 WBV983044:WBV983056 WLR983044:WLR983056 F4:F16 WVN4:WVN16 WLR4:WLR16 WBV4:WBV16 VRZ4:VRZ16 VID4:VID16 UYH4:UYH16 UOL4:UOL16 UEP4:UEP16 TUT4:TUT16 TKX4:TKX16 TBB4:TBB16 SRF4:SRF16 SHJ4:SHJ16 RXN4:RXN16 RNR4:RNR16 RDV4:RDV16 QTZ4:QTZ16 QKD4:QKD16 QAH4:QAH16 PQL4:PQL16 PGP4:PGP16 OWT4:OWT16 OMX4:OMX16 ODB4:ODB16 NTF4:NTF16 NJJ4:NJJ16 MZN4:MZN16 MPR4:MPR16 MFV4:MFV16 LVZ4:LVZ16 LMD4:LMD16 LCH4:LCH16 KSL4:KSL16 KIP4:KIP16 JYT4:JYT16 JOX4:JOX16 JFB4:JFB16 IVF4:IVF16 ILJ4:ILJ16 IBN4:IBN16 HRR4:HRR16 HHV4:HHV16 GXZ4:GXZ16 GOD4:GOD16 GEH4:GEH16 FUL4:FUL16 FKP4:FKP16 FAT4:FAT16 EQX4:EQX16 EHB4:EHB16 DXF4:DXF16 DNJ4:DNJ16 DDN4:DDN16 CTR4:CTR16 CJV4:CJV16 BZZ4:BZZ16 BQD4:BQD16 BGH4:BGH16 AWL4:AWL16 AMP4:AMP16 ACT4:ACT16 SX4:SX16 JB4:JB16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE5:JE1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I3 I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="TA7:TA1048576 ACW7:ACW1048576 AMS7:AMS1048576 AWO7:AWO1048576 BGK7:BGK1048576 BQG7:BQG1048576 CAC7:CAC1048576 CJY7:CJY1048576 CTU7:CTU1048576 DDQ7:DDQ1048576 DNM7:DNM1048576 DXI7:DXI1048576 EHE7:EHE1048576 ERA7:ERA1048576 FAW7:FAW1048576 FKS7:FKS1048576 FUO7:FUO1048576 GEK7:GEK1048576 GOG7:GOG1048576 GYC7:GYC1048576 HHY7:HHY1048576 HRU7:HRU1048576 IBQ7:IBQ1048576 ILM7:ILM1048576 IVI7:IVI1048576 JFE7:JFE1048576 JPA7:JPA1048576 JYW7:JYW1048576 KIS7:KIS1048576 KSO7:KSO1048576 LCK7:LCK1048576 LMG7:LMG1048576 LWC7:LWC1048576 MFY7:MFY1048576 MPU7:MPU1048576 MZQ7:MZQ1048576 NJM7:NJM1048576 NTI7:NTI1048576 ODE7:ODE1048576 ONA7:ONA1048576 OWW7:OWW1048576 PGS7:PGS1048576 PQO7:PQO1048576 QAK7:QAK1048576 QKG7:QKG1048576 QUC7:QUC1048576 RDY7:RDY1048576 RNU7:RNU1048576 RXQ7:RXQ1048576 SHM7:SHM1048576 SRI7:SRI1048576 TBE7:TBE1048576 TLA7:TLA1048576 TUW7:TUW1048576 UES7:UES1048576 UOO7:UOO1048576 UYK7:UYK1048576 VIG7:VIG1048576 VSC7:VSC1048576 WBY7:WBY1048576 WLU7:WLU1048576 WVQ7:WVQ1048576 I7:I1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I3 JE7:JE1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 WVQ4">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 JE4:JE6 TA4:TA6 ACW4:ACW6 AMS4:AMS6 AWO4:AWO6 BGK4:BGK6 BQG4:BQG6 CAC4:CAC6 CJY4:CJY6 CTU4:CTU6 DDQ4:DDQ6 DNM4:DNM6 DXI4:DXI6 EHE4:EHE6 ERA4:ERA6 FAW4:FAW6 FKS4:FKS6 FUO4:FUO6 GEK4:GEK6 GOG4:GOG6 GYC4:GYC6 HHY4:HHY6 HRU4:HRU6 IBQ4:IBQ6 ILM4:ILM6 IVI4:IVI6 JFE4:JFE6 JPA4:JPA6 JYW4:JYW6 KIS4:KIS6 KSO4:KSO6 LCK4:LCK6 LMG4:LMG6 LWC4:LWC6 MFY4:MFY6 MPU4:MPU6 MZQ4:MZQ6 NJM4:NJM6 NTI4:NTI6 ODE4:ODE6 ONA4:ONA6 OWW4:OWW6 PGS4:PGS6 PQO4:PQO6 QAK4:QAK6 QKG4:QKG6 QUC4:QUC6 RDY4:RDY6 RNU4:RNU6 RXQ4:RXQ6 SHM4:SHM6 SRI4:SRI6 TBE4:TBE6 TLA4:TLA6 TUW4:TUW6 UES4:UES6 UOO4:UOO6 UYK4:UYK6 VIG4:VIG6 VSC4:VSC6 WBY4:WBY6 WLU4:WLU6 WVQ4:WVQ6">
       <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="181">
   <si>
     <t>No</t>
   </si>
@@ -764,6 +764,54 @@
   <si>
     <t>cat监控</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】- 调整了伙伴登录页面底部“投诉建议”、“业务介绍”弹出框内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要手动执行定时器，无需SQL脚本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1064,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,6 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,8 +1278,8 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1582,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T202"/>
+  <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1912,14 +1963,26 @@
       <c r="K7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="L7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="18"/>
+      <c r="R7" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="41" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1954,108 +2017,120 @@
       <c r="K8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="41" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>87</v>
+      <c r="B9" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="42">
-        <v>42525</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42527</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="42">
-        <v>42525</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>70</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42527</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="42">
-        <v>42527</v>
+        <v>174</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42528</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="55" t="s">
+        <v>173</v>
+      </c>
       <c r="S9" s="18"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T9" s="40"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F10" s="42">
         <v>42525</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H10" s="42">
         <v>42525</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N10" s="42">
-        <v>42528</v>
+        <v>42527</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>75</v>
@@ -2071,10 +2146,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>76</v>
@@ -2083,21 +2158,23 @@
         <v>77</v>
       </c>
       <c r="F11" s="42">
-        <v>42523</v>
+        <v>42525</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>77</v>
       </c>
       <c r="H11" s="42">
-        <v>42523</v>
+        <v>42525</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="K11" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>80</v>
@@ -2119,41 +2196,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="42">
-        <v>42525</v>
+        <v>42523</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" s="42">
-        <v>42525</v>
+        <v>42523</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="J12" s="14"/>
       <c r="K12" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N12" s="42">
-        <v>42527</v>
+        <v>42528</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>75</v>
@@ -2164,49 +2239,53 @@
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>91</v>
+      <c r="B13" s="39" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="13">
-        <v>42527</v>
+        <v>77</v>
+      </c>
+      <c r="F13" s="42">
+        <v>42525</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="13">
-        <v>42527</v>
+        <v>85</v>
+      </c>
+      <c r="H13" s="42">
+        <v>42525</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="42">
+        <v>42527</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="R13" s="22"/>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
@@ -2215,42 +2294,44 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="E14" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F14" s="13">
         <v>42527</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42527</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="13">
-        <v>42527</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
@@ -2259,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>99</v>
@@ -2269,27 +2350,27 @@
         <v>100</v>
       </c>
       <c r="F15" s="13">
-        <v>42521</v>
+        <v>42527</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>103</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N15" s="13">
-        <v>42522</v>
+        <v>42527</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="22"/>
@@ -2303,20 +2384,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="13">
-        <v>42527</v>
+        <v>42521</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
@@ -2329,8 +2410,12 @@
       <c r="L16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
+      <c r="M16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42522</v>
+      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -2343,17 +2428,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="13">
-        <v>42522</v>
+        <v>42527</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>101</v>
@@ -2361,20 +2446,16 @@
       <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="13">
-        <v>42522</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="14"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
@@ -2387,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>111</v>
@@ -2400,24 +2481,24 @@
         <v>42522</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>114</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>115</v>
       </c>
       <c r="N18" s="13">
-        <v>42524</v>
+        <v>42522</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="22"/>
@@ -2431,7 +2512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>111</v>
@@ -2444,7 +2525,7 @@
         <v>42522</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
@@ -2455,7 +2536,7 @@
         <v>114</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>115</v>
@@ -2475,17 +2556,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="13">
-        <v>42527</v>
+        <v>42522</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>101</v>
@@ -2499,10 +2580,14 @@
         <v>114</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="13">
+        <v>42524</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -2515,25 +2600,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="13">
         <v>42527</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>114</v>
@@ -2555,20 +2640,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="13">
         <v>42527</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="12"/>
@@ -2595,14 +2680,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="13">
         <v>42527</v>
@@ -2613,13 +2698,13 @@
       <c r="H23" s="13"/>
       <c r="I23" s="12"/>
       <c r="J23" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>114</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="13"/>
@@ -2635,20 +2720,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="13">
         <v>42527</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="12"/>
@@ -2659,7 +2744,7 @@
         <v>114</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="13"/>
@@ -2675,49 +2760,39 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>124</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F25" s="13">
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="13">
-        <v>42524</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="12"/>
       <c r="J25" s="14" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="O25" s="14"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
-      <c r="R25" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="R25" s="22"/>
+      <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -2725,25 +2800,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13">
-        <v>42525</v>
+        <v>42524</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="13">
-        <v>42525</v>
+        <v>42524</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="14" t="s">
@@ -2765,7 +2840,9 @@
       <c r="R26" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="S26" s="18"/>
+      <c r="S26" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -2773,7 +2850,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>27</v>
@@ -2821,7 +2898,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>27</v>
@@ -2864,62 +2941,60 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="44">
-        <v>42524</v>
-      </c>
-      <c r="G29" s="44" t="s">
+      <c r="F29" s="13">
+        <v>42525</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="44">
-        <v>42524</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45" t="s">
+      <c r="H29" s="13">
+        <v>42525</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46" t="s">
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="S29" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="T29" s="48"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>27</v>
@@ -2931,17 +3006,17 @@
         <v>60</v>
       </c>
       <c r="F30" s="44">
-        <v>42525</v>
+        <v>42524</v>
       </c>
       <c r="G30" s="44" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="44">
-        <v>42525</v>
+        <v>42524</v>
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>151</v>
@@ -2959,7 +3034,9 @@
       <c r="R30" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="S30" s="47"/>
+      <c r="S30" s="47" t="s">
+        <v>131</v>
+      </c>
       <c r="T30" s="48"/>
     </row>
     <row r="31" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -2967,7 +3044,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>27</v>
@@ -2989,7 +3066,7 @@
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>151</v>
@@ -3010,31 +3087,57 @@
       <c r="S31" s="47"/>
       <c r="T31" s="48"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="44">
+        <v>42525</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="44">
+        <v>42525</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="45"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="S32" s="47"/>
+      <c r="T32" s="48"/>
+    </row>
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3297,25 +3400,25 @@
       <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="17"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="17"/>
+      <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -3340,26 +3443,27 @@
       <c r="S46" s="17"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="9"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="4"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
@@ -4500,7 +4604,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="5"/>
       <c r="G102" s="7"/>
       <c r="H102" s="5"/>
@@ -4621,11 +4725,11 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="7"/>
       <c r="F108" s="5"/>
       <c r="G108" s="7"/>
@@ -5897,6 +6001,9 @@
       <c r="M168" s="7"/>
       <c r="N168" s="5"/>
       <c r="O168" s="4"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
       <c r="S168" s="4"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
@@ -6510,6 +6617,24 @@
       <c r="N202" s="5"/>
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A203" s="7"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="4"/>
+      <c r="S203" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6758,7 +6883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7599,36 +7724,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -7745,7 +7870,7 @@
         <v>164</v>
       </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="54"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="196">
   <si>
     <t>No</t>
   </si>
@@ -371,13 +371,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>zu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在测</t>
-    <rPh sb="0" eb="1">
-      <t>zai'ce</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -487,10 +480,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -535,10 +524,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>李傲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
   </si>
   <si>
@@ -562,15 +547,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>注册用户来源统计表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -611,9 +588,6 @@
     <t>马丁组</t>
   </si>
   <si>
-    <t>纪维玉</t>
-  </si>
-  <si>
     <t>能</t>
   </si>
   <si>
@@ -726,7 +700,7 @@
   </si>
   <si>
     <t>sysconfig-pro.properties</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>filter.sysconfig.cat.itc.filterUrl=/**
@@ -736,34 +710,34 @@
 filter.mail.smtp.host=需要改成实际蘑菇租房邮件配置filter.mail.smtp.from=需要改成实际蘑菇租房邮件配置
 filter.mail.smtp.username=需要改成实际蘑菇租房邮件配置
 filter.mail.smtp.password=需要改成实际蘑菇租房邮件配置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>邮件监控发邮件</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宋伟</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宋伟</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>/data/cat/client.xml</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>之前已经上了BS的监控，后面其他项目部署后，代码已经配置好，需要在所有部署应用的服务器配置 /data/cat/client.xml 目录，在应用重启之前配置好</t>
   </si>
   <si>
     <t>cat监控</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>【房东PC】- 调整了伙伴登录页面底部“投诉建议”、“业务介绍”弹出框内容</t>
@@ -812,13 +786,106 @@
   <si>
     <t>房东PC</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册来源_捷豹组.sql</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai'yuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源等级变动列表，集中式公寓变动无法查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug fix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -933,13 +1000,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1112,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,12 +1311,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1319,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,7 +1335,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1753,10 +1810,18 @@
       <c r="K2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -1795,10 +1860,18 @@
       <c r="K3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1837,10 +1910,18 @@
       <c r="K4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1879,10 +1960,18 @@
       <c r="K5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1921,10 +2010,18 @@
       <c r="K6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1964,24 +2061,24 @@
         <v>62</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N7" s="13">
         <v>42528</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -2018,21 +2115,21 @@
         <v>66</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N8" s="13">
         <v>42528</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="40"/>
@@ -2042,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>60</v>
@@ -2070,21 +2167,21 @@
         <v>66</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N9" s="13">
         <v>42528</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="55" t="s">
-        <v>173</v>
+      <c r="R9" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="40"/>
@@ -2094,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>27</v>
@@ -2141,12 +2238,12 @@
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>27</v>
@@ -2177,7 +2274,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N11" s="42">
         <v>42528</v>
@@ -2187,7 +2284,9 @@
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="54" t="s">
+        <v>185</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -2196,10 +2295,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>76</v>
@@ -2219,13 +2318,13 @@
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
       <c r="K12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="M12" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N12" s="42">
         <v>42528</v>
@@ -2244,13 +2343,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>77</v>
@@ -2259,7 +2358,7 @@
         <v>42525</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="42">
         <v>42525</v>
@@ -2269,7 +2368,7 @@
         <v>71</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>73</v>
@@ -2294,16 +2393,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="F14" s="13">
         <v>42527</v>
@@ -2316,21 +2415,27 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="L14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
@@ -2340,39 +2445,45 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="F15" s="13">
         <v>42527</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H15" s="13">
+        <v>42527</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="M15" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="N15" s="13">
         <v>42527</v>
       </c>
-      <c r="O15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
@@ -2384,39 +2495,45 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="13">
         <v>42521</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42521</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N16" s="13">
         <v>42522</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
@@ -2428,35 +2545,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E17" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" s="13">
         <v>42527</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42527</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+        <v>187</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
@@ -2468,39 +2595,45 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="13">
         <v>42522</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42522</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="N18" s="13">
         <v>42522</v>
       </c>
-      <c r="O18" s="14"/>
+      <c r="O18" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
@@ -2512,14 +2645,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="13">
         <v>42522</v>
@@ -2527,24 +2662,28 @@
       <c r="G19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>42522</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="M19" s="14" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="N19" s="13">
         <v>42524</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
@@ -2556,39 +2695,45 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="13">
         <v>42522</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42522</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N20" s="13">
         <v>42524</v>
       </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
@@ -2600,35 +2745,45 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E21" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" s="13">
         <v>42527</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H21" s="13">
+        <v>42527</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="13">
+        <v>42524</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
@@ -2640,14 +2795,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E22" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" s="13">
         <v>42527</v>
@@ -2655,20 +2812,28 @@
       <c r="G22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>42527</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
@@ -2680,35 +2845,45 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E23" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" s="13">
         <v>42527</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H23" s="13">
+        <v>42527</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+        <v>188</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
@@ -2720,35 +2895,45 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E24" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" s="13">
         <v>42527</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="H24" s="13">
+        <v>42527</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
@@ -2760,35 +2945,45 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="E25" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="13">
         <v>42527</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="H25" s="13">
+        <v>42527</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
@@ -2800,16 +2995,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F26" s="13">
         <v>42524</v>
@@ -2822,26 +3017,30 @@
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" s="13">
+        <v>42527</v>
+      </c>
       <c r="O26" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T26" s="10"/>
     </row>
@@ -2850,13 +3049,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>60</v>
@@ -2872,23 +3071,27 @@
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27" s="13">
+        <v>42527</v>
+      </c>
       <c r="O27" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
@@ -2898,13 +3101,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>60</v>
@@ -2920,23 +3123,27 @@
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N28" s="13">
+        <v>42527</v>
+      </c>
       <c r="O28" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
@@ -2946,13 +3153,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>60</v>
@@ -2968,39 +3175,43 @@
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="13">
+        <v>42527</v>
+      </c>
       <c r="O29" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>60</v>
@@ -3016,41 +3227,37 @@
       </c>
       <c r="I30" s="43"/>
       <c r="J30" s="45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K30" s="43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M30" s="45"/>
       <c r="N30" s="44"/>
       <c r="O30" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S30" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="48"/>
-    </row>
-    <row r="31" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="46"/>
+    </row>
+    <row r="31" spans="1:20" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>60</v>
@@ -3066,39 +3273,39 @@
       </c>
       <c r="I31" s="43"/>
       <c r="J31" s="45" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K31" s="43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M31" s="45"/>
       <c r="N31" s="44"/>
       <c r="O31" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S31" s="47"/>
-      <c r="T31" s="48"/>
-    </row>
-    <row r="32" spans="1:20" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="T31" s="46"/>
+    </row>
+    <row r="32" spans="1:20" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E32" s="43" t="s">
         <v>60</v>
@@ -3114,47 +3321,69 @@
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K32" s="43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M32" s="45"/>
       <c r="N32" s="44"/>
       <c r="O32" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S32" s="47"/>
-      <c r="T32" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="46"/>
     </row>
     <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="B33" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="13">
+        <v>42527</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="13">
+        <v>42527</v>
+      </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="J33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="M33" s="14"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="18"/>
+      <c r="N33" s="13">
+        <v>42528</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="10"/>
     </row>
     <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -7724,36 +7953,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -7801,37 +8030,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="K4" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="34"/>
     </row>
@@ -7840,71 +8069,71 @@
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="50"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>165</v>
-      </c>
       <c r="F6" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
